--- a/Slow Reveal Recreations/hull-house-nationalities/polygons.xlsx
+++ b/Slow Reveal Recreations/hull-house-nationalities/polygons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvsu365-my.sharepoint.com/personal/s_cousilou_gvsu_edu/Documents/GVSU/Work/GA Position/Data Literacy/Visualization Recreations/Hull Houses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="966" documentId="11_F25DC773A252ABDACC10485159997CA65BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05697CC-9EFC-4CF9-A1B1-CE6B5F7C9B47}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="13_ncr:1_{A993E112-2CB7-4C56-9B97-33A6DEC34B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A4ED656-C432-4863-8E2E-250C12CA12AB}"/>
   <bookViews>
     <workbookView xWindow="43335" yWindow="0" windowWidth="9810" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="25">
   <si>
     <t>x1</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>irish</t>
+  </si>
+  <si>
+    <t>syrian</t>
+  </si>
+  <si>
+    <t>germans</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>greek</t>
+  </si>
+  <si>
+    <t>swiss</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>dutch</t>
+  </si>
+  <si>
+    <t>scandanavian</t>
   </si>
 </sst>
 </file>
@@ -139,6 +163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,10 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A219D47-767B-4462-B7A2-6ADD9456001C}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,6 +1081,5532 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>48.72</v>
+      </c>
+      <c r="B21">
+        <v>36.6</v>
+      </c>
+      <c r="C21">
+        <v>48.72</v>
+      </c>
+      <c r="D21">
+        <v>33.58</v>
+      </c>
+      <c r="E21">
+        <v>49.31</v>
+      </c>
+      <c r="F21">
+        <v>33.58</v>
+      </c>
+      <c r="G21">
+        <v>49.31</v>
+      </c>
+      <c r="H21">
+        <v>36.6</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>49.31</v>
+      </c>
+      <c r="B22">
+        <v>36.6</v>
+      </c>
+      <c r="C22">
+        <v>49.31</v>
+      </c>
+      <c r="D22">
+        <v>36.01</v>
+      </c>
+      <c r="E22">
+        <v>50.69</v>
+      </c>
+      <c r="F22">
+        <v>36.01</v>
+      </c>
+      <c r="G22">
+        <v>50.69</v>
+      </c>
+      <c r="H22">
+        <v>36.6</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>50.69</v>
+      </c>
+      <c r="B23">
+        <v>36.6</v>
+      </c>
+      <c r="C23">
+        <v>50.69</v>
+      </c>
+      <c r="D23">
+        <v>36.01</v>
+      </c>
+      <c r="E23">
+        <v>51.64</v>
+      </c>
+      <c r="F23">
+        <v>36.01</v>
+      </c>
+      <c r="G23">
+        <v>51.64</v>
+      </c>
+      <c r="H23">
+        <v>36.6</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>49.31</v>
+      </c>
+      <c r="B24">
+        <v>36.01</v>
+      </c>
+      <c r="C24">
+        <v>49.31</v>
+      </c>
+      <c r="D24">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="E24">
+        <v>50.69</v>
+      </c>
+      <c r="F24">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="G24">
+        <v>50.69</v>
+      </c>
+      <c r="H24">
+        <v>36.01</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>50.69</v>
+      </c>
+      <c r="B25">
+        <v>36.01</v>
+      </c>
+      <c r="C25">
+        <v>50.69</v>
+      </c>
+      <c r="D25">
+        <v>35.4</v>
+      </c>
+      <c r="E25">
+        <v>51.64</v>
+      </c>
+      <c r="F25">
+        <v>35.4</v>
+      </c>
+      <c r="G25">
+        <v>51.64</v>
+      </c>
+      <c r="H25">
+        <v>36.01</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>50.69</v>
+      </c>
+      <c r="B26">
+        <v>35.4</v>
+      </c>
+      <c r="C26">
+        <v>50.69</v>
+      </c>
+      <c r="D26">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="E26">
+        <v>50.98</v>
+      </c>
+      <c r="F26">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="G26">
+        <v>50.98</v>
+      </c>
+      <c r="H26">
+        <v>35.4</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>50.98</v>
+      </c>
+      <c r="B27">
+        <v>35.4</v>
+      </c>
+      <c r="C27">
+        <v>50.98</v>
+      </c>
+      <c r="D27">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="E27">
+        <v>51.64</v>
+      </c>
+      <c r="F27">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="G27">
+        <v>51.64</v>
+      </c>
+      <c r="H27">
+        <v>35.4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>49.31</v>
+      </c>
+      <c r="B28">
+        <v>34.22</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C30" si="0">A28</f>
+        <v>49.31</v>
+      </c>
+      <c r="D28">
+        <v>33.58</v>
+      </c>
+      <c r="E28">
+        <v>49.72</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F30" si="1">D28</f>
+        <v>33.58</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G30" si="2">E28</f>
+        <v>49.72</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H30" si="3">B28</f>
+        <v>34.22</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>49.72</v>
+      </c>
+      <c r="B29">
+        <v>34.22</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>49.72</v>
+      </c>
+      <c r="D29">
+        <v>33.58</v>
+      </c>
+      <c r="E29">
+        <v>50.99</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>33.58</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>50.99</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>34.22</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>50.99</v>
+      </c>
+      <c r="B30">
+        <v>34.22</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>50.99</v>
+      </c>
+      <c r="D30">
+        <v>33.58</v>
+      </c>
+      <c r="E30">
+        <v>51.64</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>33.58</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>51.64</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>34.22</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>40.11</v>
+      </c>
+      <c r="B31">
+        <v>33.26</v>
+      </c>
+      <c r="C31">
+        <v>40.11</v>
+      </c>
+      <c r="D31">
+        <v>29.85</v>
+      </c>
+      <c r="E31">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="F31">
+        <v>29.85</v>
+      </c>
+      <c r="G31">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="H31">
+        <v>33.26</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="B32">
+        <v>33.26</v>
+      </c>
+      <c r="C32">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="D32">
+        <v>31.69</v>
+      </c>
+      <c r="E32">
+        <v>41.22</v>
+      </c>
+      <c r="F32">
+        <v>31.69</v>
+      </c>
+      <c r="G32">
+        <v>41.22</v>
+      </c>
+      <c r="H32">
+        <v>33.26</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="B33">
+        <v>31.69</v>
+      </c>
+      <c r="C33">
+        <f>A33</f>
+        <v>40.619999999999997</v>
+      </c>
+      <c r="D33">
+        <v>29.85</v>
+      </c>
+      <c r="E33">
+        <v>41.22</v>
+      </c>
+      <c r="F33">
+        <f>D33</f>
+        <v>29.85</v>
+      </c>
+      <c r="G33">
+        <f>E33</f>
+        <v>41.22</v>
+      </c>
+      <c r="H33">
+        <f>B33</f>
+        <v>31.69</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>41.22</v>
+      </c>
+      <c r="B34">
+        <v>33.26</v>
+      </c>
+      <c r="C34">
+        <f>A34</f>
+        <v>41.22</v>
+      </c>
+      <c r="D34">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E34">
+        <v>41.79</v>
+      </c>
+      <c r="F34">
+        <f>D34</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G34">
+        <f>E34</f>
+        <v>41.79</v>
+      </c>
+      <c r="H34">
+        <f>B34</f>
+        <v>33.26</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>41.22</v>
+      </c>
+      <c r="B35">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C51" si="4">A35</f>
+        <v>41.22</v>
+      </c>
+      <c r="D35">
+        <v>31.68</v>
+      </c>
+      <c r="E35">
+        <v>41.79</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F51" si="5">D35</f>
+        <v>31.68</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G51" si="6">E35</f>
+        <v>41.79</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H51" si="7">B35</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>41.22</v>
+      </c>
+      <c r="B36">
+        <v>31.68</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>41.22</v>
+      </c>
+      <c r="D36">
+        <v>29.85</v>
+      </c>
+      <c r="E36">
+        <v>41.79</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>41.79</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>31.68</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>41.79</v>
+      </c>
+      <c r="B37">
+        <v>33.26</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>41.79</v>
+      </c>
+      <c r="D37">
+        <v>29.85</v>
+      </c>
+      <c r="E37">
+        <v>42.35</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>42.35</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>42.35</v>
+      </c>
+      <c r="B38">
+        <v>33.26</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>42.35</v>
+      </c>
+      <c r="D38">
+        <v>29.85</v>
+      </c>
+      <c r="E38">
+        <v>42.92</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G38">
+        <f>E38</f>
+        <v>42.92</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>42.92</v>
+      </c>
+      <c r="B39">
+        <v>33.26</v>
+      </c>
+      <c r="C39">
+        <f>A39</f>
+        <v>42.92</v>
+      </c>
+      <c r="D39">
+        <v>33.06</v>
+      </c>
+      <c r="E39">
+        <v>43.51</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>33.06</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>43.51</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>42.92</v>
+      </c>
+      <c r="B40">
+        <v>33.06</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>42.92</v>
+      </c>
+      <c r="D40">
+        <v>32.43</v>
+      </c>
+      <c r="E40">
+        <v>43.51</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>32.43</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>43.51</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>33.06</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>42.92</v>
+      </c>
+      <c r="B41">
+        <v>32.43</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>42.92</v>
+      </c>
+      <c r="D41">
+        <v>31.56</v>
+      </c>
+      <c r="E41">
+        <v>43.51</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>31.56</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>43.51</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>32.43</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>42.92</v>
+      </c>
+      <c r="B42">
+        <v>31.56</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>42.92</v>
+      </c>
+      <c r="D42">
+        <v>29.85</v>
+      </c>
+      <c r="E42">
+        <v>43.51</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>43.51</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>31.56</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>43.51</v>
+      </c>
+      <c r="B43">
+        <v>33.26</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>43.51</v>
+      </c>
+      <c r="D43">
+        <v>31.97</v>
+      </c>
+      <c r="E43">
+        <v>44.07</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>31.97</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>44.07</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43.51</v>
+      </c>
+      <c r="B44">
+        <v>31.97</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>43.51</v>
+      </c>
+      <c r="D44">
+        <v>29.85</v>
+      </c>
+      <c r="E44">
+        <v>44.07</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>44.07</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>31.97</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44.07</v>
+      </c>
+      <c r="B45">
+        <v>33.26</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>44.07</v>
+      </c>
+      <c r="D45">
+        <v>29.85</v>
+      </c>
+      <c r="E45">
+        <v>44.8</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>44.8</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44.68</v>
+      </c>
+      <c r="B46">
+        <v>33.26</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>44.68</v>
+      </c>
+      <c r="D46">
+        <v>31.93</v>
+      </c>
+      <c r="E46">
+        <v>45.14</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>31.93</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>45.14</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>44.68</v>
+      </c>
+      <c r="B47">
+        <v>31.93</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>44.68</v>
+      </c>
+      <c r="D47">
+        <v>29.85</v>
+      </c>
+      <c r="E47">
+        <v>45.14</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>45.14</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>31.93</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>45.14</v>
+      </c>
+      <c r="B48">
+        <v>33.26</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>45.14</v>
+      </c>
+      <c r="D48">
+        <v>31.71</v>
+      </c>
+      <c r="E48">
+        <v>45.87</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>31.71</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>45.87</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>45.14</v>
+      </c>
+      <c r="B49">
+        <v>31.71</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>45.14</v>
+      </c>
+      <c r="D49">
+        <v>29.85</v>
+      </c>
+      <c r="E49">
+        <v>45.87</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>29.85</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>45.87</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>31.71</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49.74</v>
+      </c>
+      <c r="B50">
+        <v>33.26</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>49.74</v>
+      </c>
+      <c r="D50">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="E50">
+        <v>50.49</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>32.549999999999997</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>50.49</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50.49</v>
+      </c>
+      <c r="B51">
+        <v>33.26</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>50.49</v>
+      </c>
+      <c r="D51">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="E51">
+        <v>51.64</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>32.549999999999997</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>51.64</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="7"/>
+        <v>33.26</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>3.79</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:C60" si="8">A52</f>
+        <v>3.79</v>
+      </c>
+      <c r="D52">
+        <v>25.13</v>
+      </c>
+      <c r="E52">
+        <v>6.61</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F60" si="9">D52</f>
+        <v>25.13</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G60" si="10">E52</f>
+        <v>6.61</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H60" si="11">B52</f>
+        <v>28</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>7.29</v>
+      </c>
+      <c r="B53">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>7.29</v>
+      </c>
+      <c r="D53">
+        <v>25.13</v>
+      </c>
+      <c r="E53">
+        <v>9.74</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>9.74</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>9.74</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>9.74</v>
+      </c>
+      <c r="D54">
+        <v>25.13</v>
+      </c>
+      <c r="E54">
+        <v>10.3</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="10"/>
+        <v>10.3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>11.59</v>
+      </c>
+      <c r="B55">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>11.59</v>
+      </c>
+      <c r="D55">
+        <v>25.13</v>
+      </c>
+      <c r="E55">
+        <v>12.73</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="10"/>
+        <v>12.73</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>12.73</v>
+      </c>
+      <c r="B56">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="8"/>
+        <v>12.73</v>
+      </c>
+      <c r="D56">
+        <v>25.13</v>
+      </c>
+      <c r="E56">
+        <v>13.39</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="10"/>
+        <v>13.39</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>13.39</v>
+      </c>
+      <c r="B57">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="8"/>
+        <v>13.39</v>
+      </c>
+      <c r="D57">
+        <v>25.13</v>
+      </c>
+      <c r="E57">
+        <v>13.9</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="10"/>
+        <v>13.9</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>13.9</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="8"/>
+        <v>13.9</v>
+      </c>
+      <c r="D58">
+        <v>25.13</v>
+      </c>
+      <c r="E58">
+        <v>15.31</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="10"/>
+        <v>15.31</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>15.31</v>
+      </c>
+      <c r="B59">
+        <v>25.56</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="8"/>
+        <v>15.31</v>
+      </c>
+      <c r="D59">
+        <v>25.13</v>
+      </c>
+      <c r="E59">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="9"/>
+        <v>25.13</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="10"/>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="11"/>
+        <v>25.56</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>15.31</v>
+      </c>
+      <c r="B60">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="8"/>
+        <v>15.31</v>
+      </c>
+      <c r="D60">
+        <v>25.56</v>
+      </c>
+      <c r="E60">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>25.56</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="10"/>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:C76" si="12">A61</f>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="D61">
+        <v>25.13</v>
+      </c>
+      <c r="E61">
+        <v>16.97</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:F76" si="13">D61</f>
+        <v>25.13</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G61:G76" si="14">E61</f>
+        <v>16.97</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:H76" si="15">B61</f>
+        <v>28</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>16.97</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="12"/>
+        <v>16.97</v>
+      </c>
+      <c r="D62">
+        <v>25.13</v>
+      </c>
+      <c r="E62">
+        <v>18.86</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="14"/>
+        <v>18.86</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>18.86</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="12"/>
+        <v>18.86</v>
+      </c>
+      <c r="D63">
+        <v>25.72</v>
+      </c>
+      <c r="E63">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="13"/>
+        <v>25.72</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="14"/>
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>18.86</v>
+      </c>
+      <c r="B64">
+        <v>25.72</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="12"/>
+        <v>18.86</v>
+      </c>
+      <c r="D64">
+        <v>25.13</v>
+      </c>
+      <c r="E64">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="14"/>
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="15"/>
+        <v>25.72</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>20.91</v>
+      </c>
+      <c r="B65">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="12"/>
+        <v>20.91</v>
+      </c>
+      <c r="D65">
+        <v>25.13</v>
+      </c>
+      <c r="E65">
+        <v>22.5</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="14"/>
+        <v>22.5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>22.5</v>
+      </c>
+      <c r="B66">
+        <v>27.33</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="12"/>
+        <v>22.5</v>
+      </c>
+      <c r="D66">
+        <v>26.91</v>
+      </c>
+      <c r="E66">
+        <v>23.14</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="13"/>
+        <v>26.91</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="14"/>
+        <v>23.14</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="15"/>
+        <v>27.33</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>22.5</v>
+      </c>
+      <c r="B67">
+        <v>26.91</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="12"/>
+        <v>22.5</v>
+      </c>
+      <c r="D67">
+        <v>25.13</v>
+      </c>
+      <c r="E67">
+        <v>23.14</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="14"/>
+        <v>23.14</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="15"/>
+        <v>26.91</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>23.14</v>
+      </c>
+      <c r="B68">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="12"/>
+        <v>23.14</v>
+      </c>
+      <c r="D68">
+        <v>25.13</v>
+      </c>
+      <c r="E68">
+        <v>23.83</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="14"/>
+        <v>23.83</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>25.28</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="12"/>
+        <v>25.28</v>
+      </c>
+      <c r="D69">
+        <v>25.13</v>
+      </c>
+      <c r="E69">
+        <v>25.98</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="14"/>
+        <v>25.98</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>25.98</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="12"/>
+        <v>25.98</v>
+      </c>
+      <c r="D70">
+        <v>26.98</v>
+      </c>
+      <c r="E70">
+        <v>26.72</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="13"/>
+        <v>26.98</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="14"/>
+        <v>26.72</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>25.98</v>
+      </c>
+      <c r="B71">
+        <v>26.98</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="12"/>
+        <v>25.98</v>
+      </c>
+      <c r="D71">
+        <v>26.39</v>
+      </c>
+      <c r="E71">
+        <v>26.72</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="13"/>
+        <v>26.39</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="14"/>
+        <v>26.72</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>26.98</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>25.98</v>
+      </c>
+      <c r="B72">
+        <v>26.39</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="12"/>
+        <v>25.98</v>
+      </c>
+      <c r="D72">
+        <v>25.13</v>
+      </c>
+      <c r="E72">
+        <v>26.72</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="14"/>
+        <v>26.72</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="15"/>
+        <v>26.39</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>26.72</v>
+      </c>
+      <c r="B73">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="12"/>
+        <v>26.72</v>
+      </c>
+      <c r="D73">
+        <v>27.69</v>
+      </c>
+      <c r="E73">
+        <v>27.79</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="13"/>
+        <v>27.69</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="14"/>
+        <v>27.79</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>26.72</v>
+      </c>
+      <c r="B74">
+        <v>27.69</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="12"/>
+        <v>26.72</v>
+      </c>
+      <c r="D74">
+        <v>26.77</v>
+      </c>
+      <c r="E74">
+        <v>27.79</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="13"/>
+        <v>26.77</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="14"/>
+        <v>27.79</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="15"/>
+        <v>27.69</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>26.72</v>
+      </c>
+      <c r="B75">
+        <v>26.77</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="12"/>
+        <v>26.72</v>
+      </c>
+      <c r="D75">
+        <v>26.5</v>
+      </c>
+      <c r="E75">
+        <v>27.79</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="13"/>
+        <v>26.5</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="14"/>
+        <v>27.79</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="15"/>
+        <v>26.77</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>26.72</v>
+      </c>
+      <c r="B76">
+        <v>26.5</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="12"/>
+        <v>26.72</v>
+      </c>
+      <c r="D76">
+        <v>25.13</v>
+      </c>
+      <c r="E76">
+        <v>27.79</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="13"/>
+        <v>25.13</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>27.79</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="15"/>
+        <v>26.5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3.79</v>
+      </c>
+      <c r="B77">
+        <v>24.56</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:C141" si="16">A77</f>
+        <v>3.79</v>
+      </c>
+      <c r="D77">
+        <v>21.71</v>
+      </c>
+      <c r="E77">
+        <v>7.02</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:F141" si="17">D77</f>
+        <v>21.71</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G141" si="18">E77</f>
+        <v>7.02</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ref="H77:H141" si="19">B77</f>
+        <v>24.56</v>
+      </c>
+      <c r="I77">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>7.02</v>
+      </c>
+      <c r="B78">
+        <v>24.56</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="16"/>
+        <v>7.02</v>
+      </c>
+      <c r="D78">
+        <v>21.93</v>
+      </c>
+      <c r="E78">
+        <v>10.33</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="17"/>
+        <v>21.93</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="18"/>
+        <v>10.33</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="19"/>
+        <v>24.56</v>
+      </c>
+      <c r="I78">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>11.84</v>
+      </c>
+      <c r="B79">
+        <v>24.56</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79" si="20">A79</f>
+        <v>11.84</v>
+      </c>
+      <c r="D79">
+        <v>21.93</v>
+      </c>
+      <c r="E79">
+        <v>12.53</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ref="F79" si="21">D79</f>
+        <v>21.93</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79" si="22">E79</f>
+        <v>12.53</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79" si="23">B79</f>
+        <v>24.56</v>
+      </c>
+      <c r="I79">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>26.75</v>
+      </c>
+      <c r="B80">
+        <v>24.65</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="16"/>
+        <v>26.75</v>
+      </c>
+      <c r="D80">
+        <v>24.39</v>
+      </c>
+      <c r="E80">
+        <v>27.79</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="17"/>
+        <v>24.39</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="18"/>
+        <v>27.79</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="19"/>
+        <v>24.65</v>
+      </c>
+      <c r="I80">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>26.75</v>
+      </c>
+      <c r="B81">
+        <v>24.39</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="16"/>
+        <v>26.75</v>
+      </c>
+      <c r="D81">
+        <v>23.9</v>
+      </c>
+      <c r="E81">
+        <v>27.79</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="17"/>
+        <v>23.9</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="18"/>
+        <v>27.79</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="19"/>
+        <v>24.39</v>
+      </c>
+      <c r="I81">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>26.75</v>
+      </c>
+      <c r="B82">
+        <v>23.9</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="16"/>
+        <v>26.75</v>
+      </c>
+      <c r="D82">
+        <v>23.43</v>
+      </c>
+      <c r="E82">
+        <v>27.79</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="17"/>
+        <v>23.43</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="18"/>
+        <v>27.79</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="19"/>
+        <v>23.9</v>
+      </c>
+      <c r="I82">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>26.75</v>
+      </c>
+      <c r="B83">
+        <v>23.43</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="16"/>
+        <v>26.75</v>
+      </c>
+      <c r="D83">
+        <v>23.12</v>
+      </c>
+      <c r="E83">
+        <v>27.79</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="17"/>
+        <v>23.12</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="18"/>
+        <v>27.79</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="19"/>
+        <v>23.43</v>
+      </c>
+      <c r="I83">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>26.75</v>
+      </c>
+      <c r="B84">
+        <v>23.12</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="16"/>
+        <v>26.75</v>
+      </c>
+      <c r="D84">
+        <v>21.93</v>
+      </c>
+      <c r="E84">
+        <v>27.79</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="17"/>
+        <v>21.93</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>27.79</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="19"/>
+        <v>23.12</v>
+      </c>
+      <c r="I84">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>28.84</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="16"/>
+        <v>28.84</v>
+      </c>
+      <c r="D85">
+        <v>25.13</v>
+      </c>
+      <c r="E85">
+        <v>29.18</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="18"/>
+        <v>29.18</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="J85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>29.18</v>
+      </c>
+      <c r="B86">
+        <v>28</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="16"/>
+        <v>29.18</v>
+      </c>
+      <c r="D86">
+        <v>27.66</v>
+      </c>
+      <c r="E86">
+        <v>29.6</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="17"/>
+        <v>27.66</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="18"/>
+        <v>29.6</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I86">
+        <v>6</v>
+      </c>
+      <c r="J86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>29.18</v>
+      </c>
+      <c r="B87">
+        <v>27.66</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="16"/>
+        <v>29.18</v>
+      </c>
+      <c r="D87">
+        <v>26.81</v>
+      </c>
+      <c r="E87">
+        <v>29.6</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="17"/>
+        <v>26.81</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>29.6</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="19"/>
+        <v>27.66</v>
+      </c>
+      <c r="I87">
+        <v>6</v>
+      </c>
+      <c r="J87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>29.18</v>
+      </c>
+      <c r="B88">
+        <v>26.81</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="16"/>
+        <v>29.18</v>
+      </c>
+      <c r="D88">
+        <v>25.13</v>
+      </c>
+      <c r="E88">
+        <v>29.6</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
+        <v>29.6</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="19"/>
+        <v>26.81</v>
+      </c>
+      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>29.6</v>
+      </c>
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="16"/>
+        <v>29.6</v>
+      </c>
+      <c r="D89">
+        <v>27.83</v>
+      </c>
+      <c r="E89">
+        <v>30.33</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="17"/>
+        <v>27.83</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>30.33</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>29.6</v>
+      </c>
+      <c r="B90">
+        <v>27.83</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="16"/>
+        <v>29.6</v>
+      </c>
+      <c r="D90">
+        <v>26.56</v>
+      </c>
+      <c r="E90">
+        <v>30.33</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="17"/>
+        <v>26.56</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>30.33</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="19"/>
+        <v>27.83</v>
+      </c>
+      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="J90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>29.6</v>
+      </c>
+      <c r="B91">
+        <v>26.56</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="16"/>
+        <v>29.6</v>
+      </c>
+      <c r="D91">
+        <v>25.13</v>
+      </c>
+      <c r="E91">
+        <v>30.33</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="18"/>
+        <v>30.33</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="19"/>
+        <v>26.56</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>30.33</v>
+      </c>
+      <c r="B92">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="16"/>
+        <v>30.33</v>
+      </c>
+      <c r="D92">
+        <v>25.13</v>
+      </c>
+      <c r="E92">
+        <v>31.73</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="18"/>
+        <v>31.73</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>31.73</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="16"/>
+        <v>31.73</v>
+      </c>
+      <c r="D93">
+        <v>27.64</v>
+      </c>
+      <c r="E93">
+        <v>32.43</v>
+      </c>
+      <c r="F93">
+        <f>D93</f>
+        <v>27.64</v>
+      </c>
+      <c r="G93">
+        <f>E93</f>
+        <v>32.43</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="J93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>31.73</v>
+      </c>
+      <c r="B94">
+        <v>27.64</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="16"/>
+        <v>31.73</v>
+      </c>
+      <c r="D94">
+        <v>27.07</v>
+      </c>
+      <c r="E94">
+        <v>32.43</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="17"/>
+        <v>27.07</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="18"/>
+        <v>32.43</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="19"/>
+        <v>27.64</v>
+      </c>
+      <c r="I94">
+        <v>6</v>
+      </c>
+      <c r="J94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>31.73</v>
+      </c>
+      <c r="B95">
+        <v>27.07</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="16"/>
+        <v>31.73</v>
+      </c>
+      <c r="D95">
+        <v>25.95</v>
+      </c>
+      <c r="E95">
+        <v>32.43</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="17"/>
+        <v>25.95</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="18"/>
+        <v>32.43</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="19"/>
+        <v>27.07</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>31.73</v>
+      </c>
+      <c r="B96">
+        <v>25.95</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="16"/>
+        <v>31.73</v>
+      </c>
+      <c r="D96">
+        <v>25.13</v>
+      </c>
+      <c r="E96">
+        <v>32.43</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="18"/>
+        <v>32.43</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="19"/>
+        <v>25.95</v>
+      </c>
+      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>32.43</v>
+      </c>
+      <c r="B97">
+        <v>28</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="16"/>
+        <v>32.43</v>
+      </c>
+      <c r="D97">
+        <v>25.13</v>
+      </c>
+      <c r="E97">
+        <v>33.14</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="18"/>
+        <v>33.14</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I97">
+        <v>6</v>
+      </c>
+      <c r="J97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>33.14</v>
+      </c>
+      <c r="B98">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="16"/>
+        <v>33.14</v>
+      </c>
+      <c r="D98">
+        <v>25.13</v>
+      </c>
+      <c r="E98">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="18"/>
+        <v>33.840000000000003</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="B99">
+        <v>28</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="16"/>
+        <v>33.840000000000003</v>
+      </c>
+      <c r="D99">
+        <v>26.66</v>
+      </c>
+      <c r="E99">
+        <v>34.53</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="17"/>
+        <v>26.66</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="18"/>
+        <v>34.53</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="J99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="B100">
+        <v>26.66</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="16"/>
+        <v>33.840000000000003</v>
+      </c>
+      <c r="D100">
+        <v>25.93</v>
+      </c>
+      <c r="E100">
+        <v>34.53</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="17"/>
+        <v>25.93</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="18"/>
+        <v>34.53</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="19"/>
+        <v>26.66</v>
+      </c>
+      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="B101">
+        <v>25.93</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="16"/>
+        <v>33.840000000000003</v>
+      </c>
+      <c r="D101">
+        <v>25.13</v>
+      </c>
+      <c r="E101">
+        <v>34.53</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="18"/>
+        <v>34.53</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="19"/>
+        <v>25.93</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>34.53</v>
+      </c>
+      <c r="B102">
+        <v>28</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="16"/>
+        <v>34.53</v>
+      </c>
+      <c r="D102">
+        <v>26.66</v>
+      </c>
+      <c r="E102">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="17"/>
+        <v>26.66</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="18"/>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>34.53</v>
+      </c>
+      <c r="B103">
+        <v>26.66</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="16"/>
+        <v>34.53</v>
+      </c>
+      <c r="D103">
+        <v>25.93</v>
+      </c>
+      <c r="E103">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="17"/>
+        <v>25.93</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="18"/>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="19"/>
+        <v>26.66</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>34.53</v>
+      </c>
+      <c r="B104">
+        <v>25.93</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="16"/>
+        <v>34.53</v>
+      </c>
+      <c r="D104">
+        <v>25.13</v>
+      </c>
+      <c r="E104">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="18"/>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="19"/>
+        <v>25.93</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="B105">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="16"/>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="D105">
+        <v>25.13</v>
+      </c>
+      <c r="E105">
+        <v>35.97</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="18"/>
+        <v>35.97</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>35.97</v>
+      </c>
+      <c r="B106">
+        <v>28</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+      <c r="D106">
+        <v>26.76</v>
+      </c>
+      <c r="E106">
+        <v>36.69</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="17"/>
+        <v>26.76</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="18"/>
+        <v>36.69</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>35.97</v>
+      </c>
+      <c r="B107">
+        <v>26.76</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+      <c r="D107">
+        <v>26.25</v>
+      </c>
+      <c r="E107">
+        <v>36.69</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="17"/>
+        <v>26.25</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="18"/>
+        <v>36.69</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="19"/>
+        <v>26.76</v>
+      </c>
+      <c r="I107">
+        <v>6</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>35.97</v>
+      </c>
+      <c r="B108">
+        <v>26.25</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+      <c r="D108">
+        <v>25.78</v>
+      </c>
+      <c r="E108">
+        <v>36.69</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="17"/>
+        <v>25.78</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="18"/>
+        <v>36.69</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="19"/>
+        <v>26.25</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+      <c r="J108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>35.97</v>
+      </c>
+      <c r="B109">
+        <v>25.78</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+      <c r="D109">
+        <v>25.13</v>
+      </c>
+      <c r="E109">
+        <v>36.69</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="18"/>
+        <v>36.69</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="19"/>
+        <v>25.78</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>35.97</v>
+      </c>
+      <c r="B110">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+      <c r="D110">
+        <v>26.03</v>
+      </c>
+      <c r="E110">
+        <v>37.47</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="17"/>
+        <v>26.03</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="18"/>
+        <v>37.47</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I110">
+        <v>6</v>
+      </c>
+      <c r="J110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>35.97</v>
+      </c>
+      <c r="B111">
+        <v>26.03</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="16"/>
+        <v>35.97</v>
+      </c>
+      <c r="D111">
+        <v>25.13</v>
+      </c>
+      <c r="E111">
+        <v>37.47</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="18"/>
+        <v>37.47</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="19"/>
+        <v>26.03</v>
+      </c>
+      <c r="I111">
+        <v>6</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>37.47</v>
+      </c>
+      <c r="B112">
+        <v>28</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="16"/>
+        <v>37.47</v>
+      </c>
+      <c r="D112">
+        <v>25.13</v>
+      </c>
+      <c r="E112">
+        <v>38.1</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="18"/>
+        <v>38.1</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+      <c r="J112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>38.1</v>
+      </c>
+      <c r="B113">
+        <v>28</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="16"/>
+        <v>38.1</v>
+      </c>
+      <c r="D113">
+        <v>26.4</v>
+      </c>
+      <c r="E113">
+        <v>38.82</v>
+      </c>
+      <c r="F113">
+        <f>D113</f>
+        <v>26.4</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="18"/>
+        <v>38.82</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="J113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>38.1</v>
+      </c>
+      <c r="B114">
+        <v>26.4</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="16"/>
+        <v>38.1</v>
+      </c>
+      <c r="D114">
+        <v>25.13</v>
+      </c>
+      <c r="E114">
+        <v>38.82</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="18"/>
+        <v>38.82</v>
+      </c>
+      <c r="H114">
+        <f>B114</f>
+        <v>26.4</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>38.82</v>
+      </c>
+      <c r="B115">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="16"/>
+        <v>38.82</v>
+      </c>
+      <c r="D115">
+        <v>25.13</v>
+      </c>
+      <c r="E115">
+        <v>39.53</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="18"/>
+        <v>39.53</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>39.53</v>
+      </c>
+      <c r="B116">
+        <v>28</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="16"/>
+        <v>39.53</v>
+      </c>
+      <c r="D116">
+        <v>26.66</v>
+      </c>
+      <c r="E116">
+        <v>40.26</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="17"/>
+        <v>26.66</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="18"/>
+        <v>40.26</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>39.53</v>
+      </c>
+      <c r="B117">
+        <v>26.66</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="16"/>
+        <v>39.53</v>
+      </c>
+      <c r="D117">
+        <v>25.64</v>
+      </c>
+      <c r="E117">
+        <v>40.26</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="17"/>
+        <v>25.64</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="18"/>
+        <v>40.26</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="19"/>
+        <v>26.66</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>39.53</v>
+      </c>
+      <c r="B118">
+        <v>25.64</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="16"/>
+        <v>39.53</v>
+      </c>
+      <c r="D118">
+        <v>25.13</v>
+      </c>
+      <c r="E118">
+        <v>40.26</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="18"/>
+        <v>40.26</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="19"/>
+        <v>25.64</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>40.26</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="16"/>
+        <v>40.26</v>
+      </c>
+      <c r="D119">
+        <v>26.66</v>
+      </c>
+      <c r="E119">
+        <v>40.89</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="17"/>
+        <v>26.66</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="18"/>
+        <v>40.89</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="J119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>40.26</v>
+      </c>
+      <c r="B120">
+        <v>26.66</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="16"/>
+        <v>40.26</v>
+      </c>
+      <c r="D120">
+        <v>26.29</v>
+      </c>
+      <c r="E120">
+        <v>40.89</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="17"/>
+        <v>26.29</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="18"/>
+        <v>40.89</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="19"/>
+        <v>26.66</v>
+      </c>
+      <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="J120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>40.26</v>
+      </c>
+      <c r="B121">
+        <v>26.29</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="16"/>
+        <v>40.26</v>
+      </c>
+      <c r="D121">
+        <v>25.85</v>
+      </c>
+      <c r="E121">
+        <v>40.89</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="17"/>
+        <v>25.85</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="18"/>
+        <v>40.89</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="19"/>
+        <v>26.29</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>40.26</v>
+      </c>
+      <c r="B122">
+        <v>25.85</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="16"/>
+        <v>40.26</v>
+      </c>
+      <c r="D122">
+        <v>25.56</v>
+      </c>
+      <c r="E122">
+        <v>40.89</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="17"/>
+        <v>25.56</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="18"/>
+        <v>40.89</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="19"/>
+        <v>25.85</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>40.26</v>
+      </c>
+      <c r="B123">
+        <v>25.56</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="16"/>
+        <v>40.26</v>
+      </c>
+      <c r="D123">
+        <v>25.13</v>
+      </c>
+      <c r="E123">
+        <v>40.26</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="18"/>
+        <v>40.26</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="19"/>
+        <v>25.56</v>
+      </c>
+      <c r="I123">
+        <v>6</v>
+      </c>
+      <c r="J123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>40.26</v>
+      </c>
+      <c r="B124">
+        <v>28</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="16"/>
+        <v>40.26</v>
+      </c>
+      <c r="D124">
+        <v>25.13</v>
+      </c>
+      <c r="E124">
+        <v>41.62</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="18"/>
+        <v>41.62</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>41.62</v>
+      </c>
+      <c r="B125">
+        <v>28</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="16"/>
+        <v>41.62</v>
+      </c>
+      <c r="D125">
+        <v>25.13</v>
+      </c>
+      <c r="E125">
+        <v>42.25</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="18"/>
+        <v>42.25</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>42.25</v>
+      </c>
+      <c r="B126">
+        <v>28</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="16"/>
+        <v>42.25</v>
+      </c>
+      <c r="D126">
+        <v>26.98</v>
+      </c>
+      <c r="E126">
+        <v>42.98</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="17"/>
+        <v>26.98</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="18"/>
+        <v>42.98</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>42.25</v>
+      </c>
+      <c r="B127">
+        <v>26.98</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="16"/>
+        <v>42.25</v>
+      </c>
+      <c r="D127">
+        <v>25.13</v>
+      </c>
+      <c r="E127">
+        <v>42.98</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="18"/>
+        <v>42.98</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="19"/>
+        <v>26.98</v>
+      </c>
+      <c r="I127">
+        <v>6</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>42.98</v>
+      </c>
+      <c r="B128">
+        <v>28</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="16"/>
+        <v>42.98</v>
+      </c>
+      <c r="D128">
+        <v>26.5</v>
+      </c>
+      <c r="E128">
+        <v>43.67</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="17"/>
+        <v>26.5</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="18"/>
+        <v>43.67</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I128">
+        <v>6</v>
+      </c>
+      <c r="J128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>42.98</v>
+      </c>
+      <c r="B129">
+        <v>26.5</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="16"/>
+        <v>42.98</v>
+      </c>
+      <c r="D129">
+        <v>25.89</v>
+      </c>
+      <c r="E129">
+        <v>43.67</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="17"/>
+        <v>25.89</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="18"/>
+        <v>43.67</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="19"/>
+        <v>26.5</v>
+      </c>
+      <c r="I129">
+        <v>6</v>
+      </c>
+      <c r="J129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>42.98</v>
+      </c>
+      <c r="B130">
+        <v>25.89</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="16"/>
+        <v>42.98</v>
+      </c>
+      <c r="D130">
+        <v>25.13</v>
+      </c>
+      <c r="E130">
+        <v>43.67</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="18"/>
+        <v>43.67</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="19"/>
+        <v>25.89</v>
+      </c>
+      <c r="I130">
+        <v>6</v>
+      </c>
+      <c r="J130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>43.67</v>
+      </c>
+      <c r="B131">
+        <v>28</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="16"/>
+        <v>43.67</v>
+      </c>
+      <c r="D131">
+        <v>25.94</v>
+      </c>
+      <c r="E131">
+        <v>44.43</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="17"/>
+        <v>25.94</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="18"/>
+        <v>44.43</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="J131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>43.67</v>
+      </c>
+      <c r="B132">
+        <v>25.94</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="16"/>
+        <v>43.67</v>
+      </c>
+      <c r="D132">
+        <v>25.56</v>
+      </c>
+      <c r="E132">
+        <v>44.43</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="17"/>
+        <v>25.56</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="18"/>
+        <v>44.43</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="19"/>
+        <v>25.94</v>
+      </c>
+      <c r="I132">
+        <v>6</v>
+      </c>
+      <c r="J132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>43.67</v>
+      </c>
+      <c r="B133">
+        <v>25.56</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="16"/>
+        <v>43.67</v>
+      </c>
+      <c r="D133">
+        <v>25.13</v>
+      </c>
+      <c r="E133">
+        <v>44.43</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="18"/>
+        <v>44.43</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="19"/>
+        <v>25.56</v>
+      </c>
+      <c r="I133">
+        <v>6</v>
+      </c>
+      <c r="J133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>44.43</v>
+      </c>
+      <c r="B134">
+        <v>28</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="16"/>
+        <v>44.43</v>
+      </c>
+      <c r="D134">
+        <v>27.31</v>
+      </c>
+      <c r="E134">
+        <v>45.09</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="17"/>
+        <v>27.31</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="18"/>
+        <v>45.09</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I134">
+        <v>6</v>
+      </c>
+      <c r="J134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>44.43</v>
+      </c>
+      <c r="B135">
+        <v>27.31</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="16"/>
+        <v>44.43</v>
+      </c>
+      <c r="D135">
+        <v>26.91</v>
+      </c>
+      <c r="E135">
+        <v>45.09</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="17"/>
+        <v>26.91</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="18"/>
+        <v>45.09</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="19"/>
+        <v>27.31</v>
+      </c>
+      <c r="I135">
+        <v>6</v>
+      </c>
+      <c r="J135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>44.43</v>
+      </c>
+      <c r="B136">
+        <v>26.91</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="16"/>
+        <v>44.43</v>
+      </c>
+      <c r="D136">
+        <v>26.33</v>
+      </c>
+      <c r="E136">
+        <v>45.09</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="17"/>
+        <v>26.33</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="18"/>
+        <v>45.09</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="19"/>
+        <v>26.91</v>
+      </c>
+      <c r="I136">
+        <v>6</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>44.43</v>
+      </c>
+      <c r="B137">
+        <v>26.33</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="16"/>
+        <v>44.43</v>
+      </c>
+      <c r="D137">
+        <v>25.71</v>
+      </c>
+      <c r="E137">
+        <v>45.09</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="17"/>
+        <v>25.71</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="18"/>
+        <v>45.09</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="19"/>
+        <v>26.33</v>
+      </c>
+      <c r="I137">
+        <v>6</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>44.43</v>
+      </c>
+      <c r="B138">
+        <v>25.71</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="16"/>
+        <v>44.43</v>
+      </c>
+      <c r="D138">
+        <v>25.13</v>
+      </c>
+      <c r="E138">
+        <v>45.09</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="18"/>
+        <v>45.09</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="19"/>
+        <v>25.71</v>
+      </c>
+      <c r="I138">
+        <v>6</v>
+      </c>
+      <c r="J138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>45.09</v>
+      </c>
+      <c r="B139">
+        <v>28</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="16"/>
+        <v>45.09</v>
+      </c>
+      <c r="D139">
+        <v>25.13</v>
+      </c>
+      <c r="E139">
+        <v>45.81</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="18"/>
+        <v>45.81</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I139">
+        <v>6</v>
+      </c>
+      <c r="J139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>46.59</v>
+      </c>
+      <c r="B140">
+        <v>28</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="16"/>
+        <v>46.59</v>
+      </c>
+      <c r="D140">
+        <v>25.92</v>
+      </c>
+      <c r="E140">
+        <v>47.28</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="17"/>
+        <v>25.92</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="18"/>
+        <v>47.28</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I140">
+        <v>6</v>
+      </c>
+      <c r="J140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>46.59</v>
+      </c>
+      <c r="B141">
+        <v>25.92</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="16"/>
+        <v>46.59</v>
+      </c>
+      <c r="D141">
+        <v>25.13</v>
+      </c>
+      <c r="E141">
+        <v>47.28</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="17"/>
+        <v>25.13</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="18"/>
+        <v>47.28</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="19"/>
+        <v>25.92</v>
+      </c>
+      <c r="I141">
+        <v>6</v>
+      </c>
+      <c r="J141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>47.28</v>
+      </c>
+      <c r="B142">
+        <v>28</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ref="C142:C168" si="24">A142</f>
+        <v>47.28</v>
+      </c>
+      <c r="D142">
+        <v>26.6</v>
+      </c>
+      <c r="E142">
+        <v>48.01</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ref="F142:F168" si="25">D142</f>
+        <v>26.6</v>
+      </c>
+      <c r="G142">
+        <f t="shared" ref="G142:G168" si="26">E142</f>
+        <v>48.01</v>
+      </c>
+      <c r="H142">
+        <f t="shared" ref="H142:H168" si="27">B142</f>
+        <v>28</v>
+      </c>
+      <c r="I142">
+        <v>6</v>
+      </c>
+      <c r="J142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>47.28</v>
+      </c>
+      <c r="B143">
+        <v>26.6</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="24"/>
+        <v>47.28</v>
+      </c>
+      <c r="D143">
+        <v>26.14</v>
+      </c>
+      <c r="E143">
+        <v>48.01</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="25"/>
+        <v>26.14</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="26"/>
+        <v>48.01</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="27"/>
+        <v>26.6</v>
+      </c>
+      <c r="I143">
+        <v>6</v>
+      </c>
+      <c r="J143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>47.28</v>
+      </c>
+      <c r="B144">
+        <v>26.14</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="24"/>
+        <v>47.28</v>
+      </c>
+      <c r="D144">
+        <v>25.67</v>
+      </c>
+      <c r="E144">
+        <v>48.01</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="25"/>
+        <v>25.67</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="26"/>
+        <v>48.01</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="27"/>
+        <v>26.14</v>
+      </c>
+      <c r="I144">
+        <v>6</v>
+      </c>
+      <c r="J144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>47.28</v>
+      </c>
+      <c r="B145">
+        <v>25.67</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="24"/>
+        <v>47.28</v>
+      </c>
+      <c r="D145">
+        <v>25.13</v>
+      </c>
+      <c r="E145">
+        <v>48.01</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="25"/>
+        <v>25.13</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="26"/>
+        <v>48.01</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="27"/>
+        <v>25.67</v>
+      </c>
+      <c r="I145">
+        <v>6</v>
+      </c>
+      <c r="J145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>48.01</v>
+      </c>
+      <c r="B146">
+        <v>28</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="24"/>
+        <v>48.01</v>
+      </c>
+      <c r="D146">
+        <v>27.5</v>
+      </c>
+      <c r="E146">
+        <v>48.71</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="25"/>
+        <v>27.5</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="26"/>
+        <v>48.71</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="I146">
+        <v>6</v>
+      </c>
+      <c r="J146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>48.01</v>
+      </c>
+      <c r="B147">
+        <v>27.5</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="24"/>
+        <v>48.01</v>
+      </c>
+      <c r="D147">
+        <v>27.03</v>
+      </c>
+      <c r="E147">
+        <v>48.71</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="25"/>
+        <v>27.03</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="26"/>
+        <v>48.71</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="27"/>
+        <v>27.5</v>
+      </c>
+      <c r="I147">
+        <v>6</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>48.01</v>
+      </c>
+      <c r="B148">
+        <v>27.03</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="24"/>
+        <v>48.01</v>
+      </c>
+      <c r="D148">
+        <v>25.91</v>
+      </c>
+      <c r="E148">
+        <v>48.71</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="25"/>
+        <v>25.91</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="26"/>
+        <v>48.71</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="27"/>
+        <v>27.03</v>
+      </c>
+      <c r="I148">
+        <v>6</v>
+      </c>
+      <c r="J148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>48.01</v>
+      </c>
+      <c r="B149">
+        <v>25.91</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="24"/>
+        <v>48.01</v>
+      </c>
+      <c r="D149">
+        <v>25.46</v>
+      </c>
+      <c r="E149">
+        <v>48.71</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="25"/>
+        <v>25.46</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="26"/>
+        <v>48.71</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="27"/>
+        <v>25.91</v>
+      </c>
+      <c r="I149">
+        <v>6</v>
+      </c>
+      <c r="J149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>48.01</v>
+      </c>
+      <c r="B150">
+        <v>25.46</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="24"/>
+        <v>48.01</v>
+      </c>
+      <c r="D150">
+        <v>25.13</v>
+      </c>
+      <c r="E150">
+        <v>48.71</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="25"/>
+        <v>25.13</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="26"/>
+        <v>48.71</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="27"/>
+        <v>25.46</v>
+      </c>
+      <c r="I150">
+        <v>6</v>
+      </c>
+      <c r="J150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>48.71</v>
+      </c>
+      <c r="B151">
+        <v>28</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="24"/>
+        <v>48.71</v>
+      </c>
+      <c r="D151">
+        <v>27.45</v>
+      </c>
+      <c r="E151">
+        <v>49.41</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="25"/>
+        <v>27.45</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="26"/>
+        <v>49.41</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="I151">
+        <v>6</v>
+      </c>
+      <c r="J151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>48.71</v>
+      </c>
+      <c r="B152">
+        <v>27.45</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="24"/>
+        <v>48.71</v>
+      </c>
+      <c r="D152">
+        <v>25.13</v>
+      </c>
+      <c r="E152">
+        <v>49.41</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="25"/>
+        <v>25.13</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="26"/>
+        <v>49.41</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="27"/>
+        <v>27.45</v>
+      </c>
+      <c r="I152">
+        <v>6</v>
+      </c>
+      <c r="J152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>49.41</v>
+      </c>
+      <c r="B153">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D153">
+        <v>27.34</v>
+      </c>
+      <c r="E153">
+        <v>51.35</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="25"/>
+        <v>27.34</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="26"/>
+        <v>51.35</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="I153">
+        <v>6</v>
+      </c>
+      <c r="J153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>51.35</v>
+      </c>
+      <c r="B154">
+        <v>28</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="24"/>
+        <v>51.35</v>
+      </c>
+      <c r="D154">
+        <v>27.34</v>
+      </c>
+      <c r="E154">
+        <v>51.64</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="25"/>
+        <v>27.34</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="27"/>
+        <v>28</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>49.41</v>
+      </c>
+      <c r="B155">
+        <v>27.34</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D155">
+        <v>26.98</v>
+      </c>
+      <c r="E155">
+        <v>51.64</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="25"/>
+        <v>26.98</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="27"/>
+        <v>27.34</v>
+      </c>
+      <c r="I155">
+        <v>6</v>
+      </c>
+      <c r="J155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>49.41</v>
+      </c>
+      <c r="B156">
+        <v>26.98</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D156">
+        <v>26.58</v>
+      </c>
+      <c r="E156">
+        <v>51.64</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="25"/>
+        <v>26.58</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="27"/>
+        <v>26.98</v>
+      </c>
+      <c r="I156">
+        <v>6</v>
+      </c>
+      <c r="J156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>49.41</v>
+      </c>
+      <c r="B157">
+        <v>26.58</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D157">
+        <v>26.13</v>
+      </c>
+      <c r="E157">
+        <v>51.64</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="25"/>
+        <v>26.13</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="27"/>
+        <v>26.58</v>
+      </c>
+      <c r="I157">
+        <v>6</v>
+      </c>
+      <c r="J157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>49.41</v>
+      </c>
+      <c r="B158">
+        <v>26.13</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D158">
+        <v>25.7</v>
+      </c>
+      <c r="E158">
+        <v>51.64</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="25"/>
+        <v>25.7</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="27"/>
+        <v>26.13</v>
+      </c>
+      <c r="I158">
+        <v>6</v>
+      </c>
+      <c r="J158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>49.41</v>
+      </c>
+      <c r="B159">
+        <v>25.7</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D159">
+        <v>25.52</v>
+      </c>
+      <c r="E159">
+        <v>50.54</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="25"/>
+        <v>25.52</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="26"/>
+        <v>50.54</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="27"/>
+        <v>25.7</v>
+      </c>
+      <c r="I159">
+        <v>6</v>
+      </c>
+      <c r="J159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>50.54</v>
+      </c>
+      <c r="B160">
+        <v>25.7</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="24"/>
+        <v>50.54</v>
+      </c>
+      <c r="D160">
+        <v>25.52</v>
+      </c>
+      <c r="E160">
+        <v>51.64</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="25"/>
+        <v>25.52</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="27"/>
+        <v>25.7</v>
+      </c>
+      <c r="I160">
+        <v>6</v>
+      </c>
+      <c r="J160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>49.41</v>
+      </c>
+      <c r="B161">
+        <v>25.52</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D161">
+        <v>25.29</v>
+      </c>
+      <c r="E161">
+        <v>51.64</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="25"/>
+        <v>25.29</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="27"/>
+        <v>25.52</v>
+      </c>
+      <c r="I161">
+        <v>6</v>
+      </c>
+      <c r="J161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>49.41</v>
+      </c>
+      <c r="B162">
+        <v>25.29</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="24"/>
+        <v>49.41</v>
+      </c>
+      <c r="D162">
+        <v>25.13</v>
+      </c>
+      <c r="E162">
+        <v>51.64</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="25"/>
+        <v>25.13</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="26"/>
+        <v>51.64</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="27"/>
+        <v>25.29</v>
+      </c>
+      <c r="I162">
+        <v>6</v>
+      </c>
+      <c r="J162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>28.84</v>
+      </c>
+      <c r="B163">
+        <v>24.65</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="24"/>
+        <v>28.84</v>
+      </c>
+      <c r="D163">
+        <v>23.89</v>
+      </c>
+      <c r="E163">
+        <v>29.51</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="25"/>
+        <v>23.89</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="26"/>
+        <v>29.51</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="27"/>
+        <v>24.65</v>
+      </c>
+      <c r="I163">
+        <v>6.1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>29.51</v>
+      </c>
+      <c r="B164">
+        <v>24.65</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="24"/>
+        <v>29.51</v>
+      </c>
+      <c r="D164">
+        <v>23.89</v>
+      </c>
+      <c r="E164">
+        <v>30.1</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="25"/>
+        <v>23.89</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="26"/>
+        <v>30.1</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="27"/>
+        <v>24.65</v>
+      </c>
+      <c r="I164">
+        <v>6.1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>28.84</v>
+      </c>
+      <c r="B165">
+        <v>23.89</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="24"/>
+        <v>28.84</v>
+      </c>
+      <c r="D165">
+        <v>21.93</v>
+      </c>
+      <c r="E165">
+        <v>30.1</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="25"/>
+        <v>21.93</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="26"/>
+        <v>30.1</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="27"/>
+        <v>23.89</v>
+      </c>
+      <c r="I165">
+        <v>6.1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>30.1</v>
+      </c>
+      <c r="B166">
+        <v>24.65</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="24"/>
+        <v>30.1</v>
+      </c>
+      <c r="D166">
+        <v>21.93</v>
+      </c>
+      <c r="E166">
+        <v>30.58</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="25"/>
+        <v>21.93</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="26"/>
+        <v>30.58</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="27"/>
+        <v>24.65</v>
+      </c>
+      <c r="I166">
+        <v>6.1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C167">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C168">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C169">
+        <f t="shared" ref="C169:C183" si="28">A169</f>
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <f t="shared" ref="F169:F183" si="29">D169</f>
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" ref="G169:G183" si="30">E169</f>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <f t="shared" ref="H169:H183" si="31">B169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C170">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C171">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C172">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C173">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C174">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C175">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C176">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C177">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C178">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C179">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C180">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C181">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C182">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C183">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
